--- a/ch08.xlsx
+++ b/ch08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Scripts\1 QuantLib\0.MyBook-QL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B1D467-BA5B-44F0-952C-861F739868F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8684488-9DF3-4115-A431-5CF13341ED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39330" yWindow="2830" windowWidth="19680" windowHeight="13750" tabRatio="828" xr2:uid="{CD4ED13A-CEB5-493D-8F1E-6C8CA74996D2}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="17620" windowHeight="15470" tabRatio="828" activeTab="5" xr2:uid="{CD4ED13A-CEB5-493D-8F1E-6C8CA74996D2}"/>
   </bookViews>
   <sheets>
     <sheet name="8.2" sheetId="46" r:id="rId1"/>
@@ -1669,7 +1669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1775,6 +1775,10 @@
     <xf numFmtId="180" fontId="9" fillId="2" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="56" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="20% - アクセント 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2489,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
@@ -3981,7 +3985,7 @@
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="45">
         <v>2</v>
       </c>
       <c r="C5" s="39"/>
@@ -3990,7 +3994,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="45">
         <v>3.0591469999999999E-2</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -4001,7 +4005,7 @@
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="45">
         <v>0.5</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -4012,7 +4016,7 @@
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="45">
         <v>0.44935819999999999</v>
       </c>
       <c r="C8" s="39" t="s">
@@ -4023,7 +4027,7 @@
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="45">
         <v>0.72824909999999998</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -4034,7 +4038,7 @@
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="46">
         <f>1-B7</f>
         <v>0.5</v>
       </c>
@@ -4046,7 +4050,7 @@
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="45">
         <f>B4*B3</f>
         <v>2.24E-4</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="45">
         <f>LN(B4/B3)</f>
         <v>-1.966112856372833</v>
       </c>
@@ -4186,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
